--- a/Design/DataTable/ItemInfo.xlsx
+++ b/Design/DataTable/ItemInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUB\SProjectDesign\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F6EFB-0B6D-4CBF-89FA-53B2674E8994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D254A4-8B89-4706-AE0B-D9F2FB9A7F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDE00369-648F-463C-BDF5-72D9CBA7FD8C}"/>
   </bookViews>
   <sheets>
     <sheet name="!ItemInfo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <t>Value05</t>
+  </si>
+  <si>
+    <t>TArray&lt;int32&gt;</t>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -555,7 +562,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -588,19 +595,19 @@
         <v>24</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -624,19 +631,19 @@
         <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
